--- a/data/Login.xlsx
+++ b/data/Login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my files\BootCamp2020\Salesforce\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\selenium-frameworks\Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>makaia@testleaf.com</t>
+    <t>Demosalesmanager</t>
   </si>
   <si>
-    <t>SelBootcamp$123</t>
+    <t>crmsfa</t>
   </si>
 </sst>
 </file>
@@ -381,9 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -409,7 +407,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="makaia@testleaf.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
